--- a/src/test/resources/data_sources/DataSourceTemplate.xlsx
+++ b/src/test/resources/data_sources/DataSourceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.giraldo/Git/github-qa-automation-utils/java-utils/src/test/resources/data_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EC54D7-D893-914F-9E68-75C8BCC70E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472322C-3DF8-3844-BDA2-9897FB8F5C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{61F841A5-CBAF-C546-8859-EA1EE730C9D8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -68,24 +68,6 @@
   </si>
   <si>
     <t>COLUMNA 10</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>ID0002</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D4</t>
   </si>
 </sst>
 </file>
@@ -142,16 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7AF076-29E0-6644-BDEF-24B4C952E591}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -478,68 +457,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.33203125" style="3"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="14.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -561,42 +515,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.33203125" style="3"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="14.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -618,42 +572,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.33203125" style="3"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="14.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/data_sources/DataSourceTemplate.xlsx
+++ b/src/test/resources/data_sources/DataSourceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.giraldo/Git/github-qa-automation-utils/java-utils/src/test/resources/data_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472322C-3DF8-3844-BDA2-9897FB8F5C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966DDB3-EABE-6942-9155-CB5C69BCE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{61F841A5-CBAF-C546-8859-EA1EE730C9D8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>COLUMNA 10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7AF076-29E0-6644-BDEF-24B4C952E591}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -494,6 +500,14 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data_sources/DataSourceTemplate.xlsx
+++ b/src/test/resources/data_sources/DataSourceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.giraldo/Git/github-qa-automation-utils/java-utils/src/test/resources/data_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966DDB3-EABE-6942-9155-CB5C69BCE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC9656-945A-D14E-8DD1-ED7062A9016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{61F841A5-CBAF-C546-8859-EA1EE730C9D8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>COLUMNA 10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -452,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7AF076-29E0-6644-BDEF-24B4C952E591}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -500,14 +494,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data_sources/DataSourceTemplate.xlsx
+++ b/src/test/resources/data_sources/DataSourceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.giraldo/Git/github-qa-automation-utils/java-utils/src/test/resources/data_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC9656-945A-D14E-8DD1-ED7062A9016A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B89D77-CB28-0644-9F74-A101D3947A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{61F841A5-CBAF-C546-8859-EA1EE730C9D8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>COLUMNA 10</t>
+  </si>
+  <si>
+    <t>CP001</t>
+  </si>
+  <si>
+    <t>CP002</t>
+  </si>
+  <si>
+    <t>CP003</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -446,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7AF076-29E0-6644-BDEF-24B4C952E591}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -494,6 +518,36 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
